--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="shaurrya"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaur\Documents\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB797D-C081-4153-B2AF-56C05CDE8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="11775" yWindow="3135" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDEX" sheetId="1" r:id="rId4"/>
-    <sheet name="VDT" sheetId="2" r:id="rId5"/>
+    <sheet name="INDEX" sheetId="1" r:id="rId1"/>
+    <sheet name="VDT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1625030709" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="185">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -578,177 +583,44 @@
   </si>
   <si>
     <t>To create object and cll functions accordingly</t>
+  </si>
+  <si>
+    <t>Bibliography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₹&quot;;\-#,##0\ &quot;₹&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₹&quot;;[Red]\-#,##0\ &quot;₹&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₹&quot;;\-#,##0.00\ &quot;₹&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₹&quot;;[Red]\-#,##0.00\ &quot;₹&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₹&quot;_-;\-* #,##0\ &quot;₹&quot;_-;_-* &quot;-&quot;\ &quot;₹&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₹_-;\-* #,##0\ _₹_-;_-* &quot;-&quot;\ _₹_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₹&quot;_-;\-* #,##0.00\ &quot;₹&quot;_-;_-* &quot;-&quot;??\ &quot;₹&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₹_-;\-* #,##0.00\ _₹_-;_-* &quot;-&quot;??\ _₹_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1625030709" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="220" lang="default"/>
-            <pm:cs face="Basic Roman" sz="220" lang="default"/>
-            <pm:ea face="Basic Roman" sz="220" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Basic Sans"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1625030709" ulstyle="none" kern="1">
-            <pm:latin face="Basic Sans" sz="200" lang="default"/>
-            <pm:cs face="Basic Roman" sz="200" lang="default"/>
-            <pm:ea face="Basic Roman" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1625030709" type="1" fgLvl="100" fgClr="00000000" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1625030709" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="100" bgClr="00D8D8D8"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1625030709" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1625030709"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1625030709"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1625030709"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1625030709"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -756,12 +628,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1625030709" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
@@ -775,155 +657,214 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C23">
-  <autoFilter ref="A1:C23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C24">
+  <autoFilter ref="A1:C24" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sl. No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Contents"/>
-    <tableColumn id="3" name="Page No." totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sl. No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Contents"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Page No." totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="AO1:AR9">
-  <autoFilter ref="AO1:AR9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="AO1:AR9">
+  <autoFilter ref="AO1:AR9" xr:uid="{00000000-0009-0000-0100-00000A000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="AT1:AW7">
-  <autoFilter ref="AT1:AW7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="AT1:AW7">
+  <autoFilter ref="AT1:AW7" xr:uid="{00000000-0009-0000-0100-00000B000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="AY1:BB9">
-  <autoFilter ref="AY1:BB9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="AY1:BB9">
+  <autoFilter ref="AY1:BB9" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D6">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D6">
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Description" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F1:I12">
-  <autoFilter ref="F1:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F1:I12">
+  <autoFilter ref="F1:I12" xr:uid="{00000000-0009-0000-0100-000003000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="K1:N10">
-  <autoFilter ref="K1:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="K1:N10">
+  <autoFilter ref="K1:N10" xr:uid="{00000000-0009-0000-0100-000004000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="P1:S12">
-  <autoFilter ref="P1:S12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="P1:S12">
+  <autoFilter ref="P1:S12" xr:uid="{00000000-0009-0000-0100-000005000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="U1:X8">
-  <autoFilter ref="U1:X8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="U1:X8">
+  <autoFilter ref="U1:X8" xr:uid="{00000000-0009-0000-0100-000006000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="Z1:AC8">
-  <autoFilter ref="Z1:AC8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="Z1:AC8">
+  <autoFilter ref="Z1:AC8" xr:uid="{00000000-0009-0000-0100-000007000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="AE1:AH11">
-  <autoFilter ref="AE1:AH11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="AE1:AH11">
+  <autoFilter ref="AE1:AH11" xr:uid="{00000000-0009-0000-0100-000008000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="AJ1:AM11">
-  <autoFilter ref="AJ1:AM11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table9" displayName="Table9" ref="AJ1:AM11">
+  <autoFilter ref="AJ1:AM11" xr:uid="{00000000-0009-0000-0100-000009000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="No." totalsRowLabel="Total"/>
-    <tableColumn id="2" name="DataType/ReturnType"/>
-    <tableColumn id="3" name="Variable/Method"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1184,21 +1125,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A22" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.428571" customWidth="1"/>
-    <col min="2" max="2" width="27.428571" customWidth="1"/>
-    <col min="3" max="3" width="9.428571" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,200 +1150,262 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="n">
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="n">
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="n">
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="n">
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="n">
+      <c r="C10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="n">
+      <c r="C11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="n">
+      <c r="C12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="n">
+      <c r="C13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="n">
+      <c r="C14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="n">
+      <c r="C15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="n">
+      <c r="C16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="n">
+      <c r="C17">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="n">
+      <c r="C18">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="n">
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="n">
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="n">
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="n">
+      <c r="C22" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1625030709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1625030709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1625030709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1418,23 +1421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="AY1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="AS5" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:BB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="20" defaultColWidth="20.714286" defaultRowHeight="15.40"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.142857" customWidth="1" style="2"/>
-    <col min="2" max="2" width="20.714286" style="2"/>
-    <col min="3" max="3" width="22.142857" customWidth="1" style="2"/>
-    <col min="4" max="4" width="30.428571" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="20.714286" style="2"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2"/>
+    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1447,12 +1450,8 @@
       <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>26</v>
@@ -1463,12 +1462,8 @@
       <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>26</v>
@@ -1479,12 +1474,8 @@
       <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>26</v>
@@ -1495,12 +1486,8 @@
       <c r="S1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>26</v>
@@ -1511,12 +1498,8 @@
       <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>26</v>
@@ -1527,12 +1510,8 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="AE1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>26</v>
@@ -1543,12 +1522,8 @@
       <c r="AH1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="AJ1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>26</v>
@@ -1559,12 +1534,8 @@
       <c r="AM1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="AO1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AP1" s="2" t="s">
         <v>26</v>
@@ -1575,12 +1546,8 @@
       <c r="AR1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="AT1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>26</v>
@@ -1591,12 +1558,8 @@
       <c r="AW1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AY1" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t>No.</t>
-          </r>
-        </is>
+      <c r="AY1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AZ1" s="2" t="s">
         <v>26</v>
@@ -1608,8 +1571,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1621,7 +1584,7 @@
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1633,7 +1596,7 @@
       <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1645,7 +1608,7 @@
       <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -1657,7 +1620,7 @@
       <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="2" t="n">
+      <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -1669,7 +1632,7 @@
       <c r="X2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="Z2" s="2">
         <v>1</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -1681,7 +1644,7 @@
       <c r="AC2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="2">
         <v>1</v>
       </c>
       <c r="AF2" s="2" t="s">
@@ -1693,7 +1656,7 @@
       <c r="AH2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="2">
         <v>1</v>
       </c>
       <c r="AK2" s="2" t="s">
@@ -1705,7 +1668,7 @@
       <c r="AM2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AO2" s="2">
         <v>1</v>
       </c>
       <c r="AP2" s="2" t="s">
@@ -1717,7 +1680,7 @@
       <c r="AR2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="2" t="n">
+      <c r="AT2" s="2">
         <v>1</v>
       </c>
       <c r="AU2" s="2" t="s">
@@ -1729,7 +1692,7 @@
       <c r="AW2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="2" t="n">
+      <c r="AY2" s="2">
         <v>1</v>
       </c>
       <c r="AZ2" s="2" t="s">
@@ -1742,8 +1705,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1755,7 +1718,7 @@
       <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1767,7 +1730,7 @@
       <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -1779,7 +1742,7 @@
       <c r="N3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1791,7 +1754,7 @@
       <c r="S3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="2" t="n">
+      <c r="U3" s="2">
         <v>2</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -1803,7 +1766,7 @@
       <c r="X3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="2" t="n">
+      <c r="Z3" s="2">
         <v>2</v>
       </c>
       <c r="AA3" s="2" t="s">
@@ -1815,7 +1778,7 @@
       <c r="AC3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="2" t="n">
+      <c r="AE3" s="2">
         <v>2</v>
       </c>
       <c r="AF3" s="2" t="s">
@@ -1827,7 +1790,7 @@
       <c r="AH3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ3" s="2" t="n">
+      <c r="AJ3" s="2">
         <v>2</v>
       </c>
       <c r="AK3" s="2" t="s">
@@ -1839,7 +1802,7 @@
       <c r="AM3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" s="2" t="n">
+      <c r="AO3" s="2">
         <v>2</v>
       </c>
       <c r="AP3" s="2" t="s">
@@ -1851,7 +1814,7 @@
       <c r="AR3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="2" t="n">
+      <c r="AT3" s="2">
         <v>2</v>
       </c>
       <c r="AU3" s="2" t="s">
@@ -1863,7 +1826,7 @@
       <c r="AW3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AY3" s="2" t="n">
+      <c r="AY3" s="2">
         <v>2</v>
       </c>
       <c r="AZ3" s="2" t="s">
@@ -1876,8 +1839,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1889,7 +1852,7 @@
       <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1901,7 +1864,7 @@
       <c r="I4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1913,7 +1876,7 @@
       <c r="N4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>3</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -1925,7 +1888,7 @@
       <c r="S4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="2">
         <v>3</v>
       </c>
       <c r="V4" s="2" t="s">
@@ -1937,7 +1900,7 @@
       <c r="X4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="2">
         <v>3</v>
       </c>
       <c r="AA4" s="2" t="s">
@@ -1949,7 +1912,7 @@
       <c r="AC4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="2" t="n">
+      <c r="AE4" s="2">
         <v>3</v>
       </c>
       <c r="AF4" s="2" t="s">
@@ -1961,7 +1924,7 @@
       <c r="AH4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AJ4" s="2">
         <v>3</v>
       </c>
       <c r="AK4" s="2" t="s">
@@ -1973,7 +1936,7 @@
       <c r="AM4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AO4" s="2" t="n">
+      <c r="AO4" s="2">
         <v>3</v>
       </c>
       <c r="AP4" s="2" t="s">
@@ -1985,7 +1948,7 @@
       <c r="AR4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AT4" s="2" t="n">
+      <c r="AT4" s="2">
         <v>3</v>
       </c>
       <c r="AU4" s="2" t="s">
@@ -1997,7 +1960,7 @@
       <c r="AW4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AY4" s="2" t="n">
+      <c r="AY4" s="2">
         <v>3</v>
       </c>
       <c r="AZ4" s="2" t="s">
@@ -2010,8 +1973,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2023,7 +1986,7 @@
       <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2035,7 +1998,7 @@
       <c r="I5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2047,7 +2010,7 @@
       <c r="N5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2">
         <v>4</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -2059,7 +2022,7 @@
       <c r="S5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="2">
         <v>4</v>
       </c>
       <c r="V5" s="2" t="s">
@@ -2071,7 +2034,7 @@
       <c r="X5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="Z5" s="2">
         <v>4</v>
       </c>
       <c r="AA5" s="2" t="s">
@@ -2083,7 +2046,7 @@
       <c r="AC5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AE5" s="2" t="n">
+      <c r="AE5" s="2">
         <v>4</v>
       </c>
       <c r="AF5" s="2" t="s">
@@ -2095,7 +2058,7 @@
       <c r="AH5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AJ5" s="2" t="n">
+      <c r="AJ5" s="2">
         <v>4</v>
       </c>
       <c r="AK5" s="2" t="s">
@@ -2107,7 +2070,7 @@
       <c r="AM5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AO5" s="2" t="n">
+      <c r="AO5" s="2">
         <v>4</v>
       </c>
       <c r="AP5" s="2" t="s">
@@ -2119,7 +2082,7 @@
       <c r="AR5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AT5" s="2" t="n">
+      <c r="AT5" s="2">
         <v>4</v>
       </c>
       <c r="AU5" s="2" t="s">
@@ -2131,7 +2094,7 @@
       <c r="AW5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AY5" s="2" t="n">
+      <c r="AY5" s="2">
         <v>4</v>
       </c>
       <c r="AZ5" s="2" t="s">
@@ -2144,8 +2107,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2157,7 +2120,7 @@
       <c r="D6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2169,7 +2132,7 @@
       <c r="I6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2181,7 +2144,7 @@
       <c r="N6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>5</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -2193,7 +2156,7 @@
       <c r="S6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="2">
         <v>5</v>
       </c>
       <c r="V6" s="2" t="s">
@@ -2205,7 +2168,7 @@
       <c r="X6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="Z6" s="2">
         <v>5</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -2217,7 +2180,7 @@
       <c r="AC6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AE6" s="2">
         <v>5</v>
       </c>
       <c r="AF6" s="2" t="s">
@@ -2229,7 +2192,7 @@
       <c r="AH6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AJ6" s="2">
         <v>5</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2241,7 +2204,7 @@
       <c r="AM6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AO6" s="2" t="n">
+      <c r="AO6" s="2">
         <v>5</v>
       </c>
       <c r="AP6" s="2" t="s">
@@ -2253,7 +2216,7 @@
       <c r="AR6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AT6" s="2" t="n">
+      <c r="AT6" s="2">
         <v>5</v>
       </c>
       <c r="AU6" s="2" t="s">
@@ -2265,7 +2228,7 @@
       <c r="AW6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AY6" s="2" t="n">
+      <c r="AY6" s="2">
         <v>5</v>
       </c>
       <c r="AZ6" s="2" t="s">
@@ -2278,9 +2241,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="4:54">
+    <row r="7" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>6</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2292,7 +2255,7 @@
       <c r="I7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2304,7 +2267,7 @@
       <c r="N7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>6</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -2316,7 +2279,7 @@
       <c r="S7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="2">
         <v>6</v>
       </c>
       <c r="V7" s="2" t="s">
@@ -2328,7 +2291,7 @@
       <c r="X7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Z7" s="2" t="n">
+      <c r="Z7" s="2">
         <v>6</v>
       </c>
       <c r="AA7" s="2" t="s">
@@ -2340,7 +2303,7 @@
       <c r="AC7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AE7" s="2">
         <v>6</v>
       </c>
       <c r="AF7" s="2" t="s">
@@ -2352,7 +2315,7 @@
       <c r="AH7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ7" s="2" t="n">
+      <c r="AJ7" s="2">
         <v>6</v>
       </c>
       <c r="AK7" s="2" t="s">
@@ -2364,7 +2327,7 @@
       <c r="AM7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AO7" s="2" t="n">
+      <c r="AO7" s="2">
         <v>6</v>
       </c>
       <c r="AP7" s="2" t="s">
@@ -2376,7 +2339,7 @@
       <c r="AR7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AT7" s="2" t="n">
+      <c r="AT7" s="2">
         <v>6</v>
       </c>
       <c r="AU7" s="2" t="s">
@@ -2388,7 +2351,7 @@
       <c r="AW7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AY7" s="2" t="n">
+      <c r="AY7" s="2">
         <v>6</v>
       </c>
       <c r="AZ7" s="2" t="s">
@@ -2401,9 +2364,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="4:54">
+    <row r="8" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2415,7 +2378,7 @@
       <c r="I8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>7</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2427,7 +2390,7 @@
       <c r="N8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>7</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -2439,7 +2402,7 @@
       <c r="S8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="2">
         <v>7</v>
       </c>
       <c r="V8" s="2" t="s">
@@ -2451,7 +2414,7 @@
       <c r="X8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Z8" s="2" t="n">
+      <c r="Z8" s="2">
         <v>7</v>
       </c>
       <c r="AA8" s="2" t="s">
@@ -2463,7 +2426,7 @@
       <c r="AC8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AE8" s="2" t="n">
+      <c r="AE8" s="2">
         <v>7</v>
       </c>
       <c r="AF8" s="2" t="s">
@@ -2475,7 +2438,7 @@
       <c r="AH8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AJ8" s="2" t="n">
+      <c r="AJ8" s="2">
         <v>7</v>
       </c>
       <c r="AK8" s="2" t="s">
@@ -2487,7 +2450,7 @@
       <c r="AM8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AO8" s="2" t="n">
+      <c r="AO8" s="2">
         <v>7</v>
       </c>
       <c r="AP8" s="2" t="s">
@@ -2499,7 +2462,7 @@
       <c r="AR8" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AY8" s="2" t="n">
+      <c r="AY8" s="2">
         <v>7</v>
       </c>
       <c r="AZ8" s="2" t="s">
@@ -2512,8 +2475,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="6:54">
-      <c r="F9" s="2" t="n">
+    <row r="9" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2525,7 +2488,7 @@
       <c r="I9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>8</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -2537,7 +2500,7 @@
       <c r="N9" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>8</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -2549,7 +2512,7 @@
       <c r="S9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AE9" s="2">
         <v>8</v>
       </c>
       <c r="AF9" s="2" t="s">
@@ -2561,7 +2524,7 @@
       <c r="AH9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AJ9" s="2" t="n">
+      <c r="AJ9" s="2">
         <v>8</v>
       </c>
       <c r="AK9" s="2" t="s">
@@ -2573,7 +2536,7 @@
       <c r="AM9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AO9" s="2" t="n">
+      <c r="AO9" s="2">
         <v>8</v>
       </c>
       <c r="AP9" s="2" t="s">
@@ -2585,7 +2548,7 @@
       <c r="AR9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AY9" s="2" t="n">
+      <c r="AY9" s="2">
         <v>8</v>
       </c>
       <c r="AZ9" s="2" t="s">
@@ -2598,8 +2561,8 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="6:39">
-      <c r="F10" s="2" t="n">
+    <row r="10" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
         <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2611,7 +2574,7 @@
       <c r="I10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>9</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2623,7 +2586,7 @@
       <c r="N10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>9</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -2635,7 +2598,7 @@
       <c r="S10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AE10" s="2" t="n">
+      <c r="AE10" s="2">
         <v>9</v>
       </c>
       <c r="AF10" s="2" t="s">
@@ -2647,7 +2610,7 @@
       <c r="AH10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AJ10" s="2" t="n">
+      <c r="AJ10" s="2">
         <v>9</v>
       </c>
       <c r="AK10" s="2" t="s">
@@ -2660,8 +2623,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="6:39">
-      <c r="F11" s="2" t="n">
+    <row r="11" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2673,7 +2636,7 @@
       <c r="I11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>10</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -2685,7 +2648,7 @@
       <c r="S11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE11" s="2" t="n">
+      <c r="AE11" s="2">
         <v>10</v>
       </c>
       <c r="AF11" s="2" t="s">
@@ -2697,7 +2660,7 @@
       <c r="AH11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AJ11" s="2" t="n">
+      <c r="AJ11" s="2">
         <v>10</v>
       </c>
       <c r="AK11" s="2" t="s">
@@ -2710,8 +2673,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="6:19">
-      <c r="F12" s="2" t="n">
+    <row r="12" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2723,7 +2686,7 @@
       <c r="I12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>11</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -2737,23 +2700,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1625030709" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.300000" footer="0.300000"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1625030709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1625030709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0"/>
   <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaur\Documents\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB797D-C081-4153-B2AF-56C05CDE8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BB0925-FF85-411B-91B0-94922EFD98AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="3135" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11100" yWindow="1965" windowWidth="15375" windowHeight="7875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
     <sheet name="VDT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1625030709" val="982" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1625030709" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1625030709" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1625030709"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="264">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -586,16 +579,258 @@
   </si>
   <si>
     <t>Bibliography</t>
+  </si>
+  <si>
+    <t>disp</t>
+  </si>
+  <si>
+    <t>ut1</t>
+  </si>
+  <si>
+    <t>ut2</t>
+  </si>
+  <si>
+    <t>ut3</t>
+  </si>
+  <si>
+    <t>ut4</t>
+  </si>
+  <si>
+    <t>ClassTest</t>
+  </si>
+  <si>
+    <t>To store marks of UT 1</t>
+  </si>
+  <si>
+    <t>To store marks of UT 2</t>
+  </si>
+  <si>
+    <t>To store marks of UT 3</t>
+  </si>
+  <si>
+    <t>To store marks of UT 4</t>
+  </si>
+  <si>
+    <t>function to display the marks</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>To store marks th final term</t>
+  </si>
+  <si>
+    <t>FinalExam</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>To calculate total marks</t>
+  </si>
+  <si>
+    <t>total_marks</t>
+  </si>
+  <si>
+    <t>To store total marks</t>
+  </si>
+  <si>
+    <t>operate()</t>
+  </si>
+  <si>
+    <t>char[]</t>
+  </si>
+  <si>
+    <t>keyV</t>
+  </si>
+  <si>
+    <t>keyC</t>
+  </si>
+  <si>
+    <t>keyO</t>
+  </si>
+  <si>
+    <t>V_arr</t>
+  </si>
+  <si>
+    <t>C_arr</t>
+  </si>
+  <si>
+    <t>O_arr</t>
+  </si>
+  <si>
+    <t>Vpos</t>
+  </si>
+  <si>
+    <t>Cpos</t>
+  </si>
+  <si>
+    <t>Opos</t>
+  </si>
+  <si>
+    <t>letarr</t>
+  </si>
+  <si>
+    <t>posarr</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>input(int)</t>
+  </si>
+  <si>
+    <t>append(int[], int)</t>
+  </si>
+  <si>
+    <t>generateKey()</t>
+  </si>
+  <si>
+    <t>extractKey()</t>
+  </si>
+  <si>
+    <t>checkArray(char[])</t>
+  </si>
+  <si>
+    <t>intcrement(char[], int)</t>
+  </si>
+  <si>
+    <t>append(char[], char)</t>
+  </si>
+  <si>
+    <t>decrement(char[], int)</t>
+  </si>
+  <si>
+    <t>fillArrs()</t>
+  </si>
+  <si>
+    <t>sortArrs()</t>
+  </si>
+  <si>
+    <t>joinArrs()</t>
+  </si>
+  <si>
+    <t>formStringFromArrs()</t>
+  </si>
+  <si>
+    <t>encrypt()</t>
+  </si>
+  <si>
+    <t>decrypt()</t>
+  </si>
+  <si>
+    <t>display(int)</t>
+  </si>
+  <si>
+    <t>To store key for vowels</t>
+  </si>
+  <si>
+    <t>To store key for consonants</t>
+  </si>
+  <si>
+    <t>To store key for everything else</t>
+  </si>
+  <si>
+    <t>To store length of the string</t>
+  </si>
+  <si>
+    <t>To store the string from user</t>
+  </si>
+  <si>
+    <t>To store the array of vowels</t>
+  </si>
+  <si>
+    <t>To store the array of consonants</t>
+  </si>
+  <si>
+    <t>To store the array of everything else</t>
+  </si>
+  <si>
+    <t>To store the positions of vowels</t>
+  </si>
+  <si>
+    <t>To store the positions of consonants</t>
+  </si>
+  <si>
+    <t>To store the positions of everything else</t>
+  </si>
+  <si>
+    <t>To store all the characters of the string</t>
+  </si>
+  <si>
+    <t>To store all the positions in the string</t>
+  </si>
+  <si>
+    <t>To store the final string</t>
+  </si>
+  <si>
+    <t>To take input according to choice</t>
+  </si>
+  <si>
+    <t>To append an elemennt to an array</t>
+  </si>
+  <si>
+    <t>To append an  element to an array</t>
+  </si>
+  <si>
+    <t>To generate a random key</t>
+  </si>
+  <si>
+    <t>To extract the key from the  string</t>
+  </si>
+  <si>
+    <t>To check if an array is eligible to be encrypted</t>
+  </si>
+  <si>
+    <t>To shift elements  in  an  array to right</t>
+  </si>
+  <si>
+    <t>To shift elements  in  an  array to left</t>
+  </si>
+  <si>
+    <t>To fill all the arrays</t>
+  </si>
+  <si>
+    <t>To join all the arrays</t>
+  </si>
+  <si>
+    <t>To sort the joined arrays</t>
+  </si>
+  <si>
+    <t>To form a string from letarr</t>
+  </si>
+  <si>
+    <t>To encrypt a string</t>
+  </si>
+  <si>
+    <t>To decrypt a string</t>
+  </si>
+  <si>
+    <t>To display according to choice</t>
+  </si>
+  <si>
+    <t>To take input of choice</t>
+  </si>
+  <si>
+    <t>To call display and input of choice</t>
+  </si>
+  <si>
+    <t>To create object and call operate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -643,14 +878,6 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-    <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1625030709" count="1">
-        <pm:charStyle name="Normal" fontId="0" Id="1"/>
-      </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1625030709" count="1">
-        <pm:color name="Color 24" rgb="D8D8D8"/>
-      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -721,6 +948,67 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="DataType/ReturnType"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Variable/Method"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{937B3780-B042-4D49-9066-ACCEFD1947E7}" name="Table214" displayName="Table214" ref="BD1:BG7">
+  <autoFilter ref="BD1:BG7" xr:uid="{937B3780-B042-4D49-9066-ACCEFD1947E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BD2:BG6">
+    <sortCondition ref="BD1:BD6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2CFD218B-8A5A-4A51-9C34-D713446C8D9F}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{4FA50C4C-DB21-4621-A679-F0D4CBFFF94D}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{BB117322-C492-410A-9EA8-1E9570D112BB}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{FF181637-255A-4782-9EB6-93F1F13F8566}" name="Description" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E06D6A91-BB4E-4196-9F8D-E7BBC5BAD647}" name="Table21415" displayName="Table21415" ref="BI1:BL4">
+  <autoFilter ref="BI1:BL4" xr:uid="{E06D6A91-BB4E-4196-9F8D-E7BBC5BAD647}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BI2:BL6">
+    <sortCondition ref="BI1:BI6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5CB5F443-8CBD-41D1-83E1-D52B2AAC3FC1}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{6FA00297-99BF-408E-AC68-0CAD15298083}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{A7058975-A534-4276-8990-12077E3ACEAF}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{3DF12C8B-B2AC-401F-BE68-63F2574599F0}" name="Description" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E28B9A35-5EAA-4ED8-B325-26F2714346E2}" name="Table2141516" displayName="Table2141516" ref="BN1:BQ5">
+  <autoFilter ref="BN1:BQ5" xr:uid="{E28B9A35-5EAA-4ED8-B325-26F2714346E2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BN2:BQ6">
+    <sortCondition ref="BN1:BN6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D837F842-A076-4E33-99E9-FDD84ED551FE}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B0A315F5-DE51-413E-8219-990F81054692}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{834D29F4-993A-4689-8CB5-9CFD27007822}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{2CBE8184-C8E5-44B3-991D-A60BF53F01D4}" name="Description" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4EDA479-52D2-4EDF-A49B-9A685C51D021}" name="Table217" displayName="Table217" ref="BS1:BV33">
+  <autoFilter ref="BS1:BV33" xr:uid="{B4EDA479-52D2-4EDF-A49B-9A685C51D021}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BF1E9669-4E5C-454C-9645-3E27BBED1DC4}" name="No." totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{AD3ED503-0310-45B3-8187-02249FABDC79}" name="DataType/ReturnType"/>
+    <tableColumn id="3" xr3:uid="{09073342-11B2-439A-B608-F8F7BC00B85A}" name="Variable/Method"/>
+    <tableColumn id="4" xr3:uid="{2113A72B-8D07-4438-9889-78CE67D19591}" name="Description" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" workbookViewId="0">
       <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
@@ -1409,23 +1697,15 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1625030709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BV33"/>
   <sheetViews>
-    <sheetView topLeftCell="AS5" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:BB9"/>
+    <sheetView tabSelected="1" topLeftCell="BS21" zoomScale="90" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1:BV33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1717,7 @@
     <col min="5" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1570,8 +1850,56 @@
       <c r="BB1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1704,8 +2032,56 @@
       <c r="BB2" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1838,8 +2214,56 @@
       <c r="BB3" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BD3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1972,8 +2396,56 @@
       <c r="BB4" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" ht="75" x14ac:dyDescent="0.25">
+      <c r="BD4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2106,8 +2578,44 @@
       <c r="BB5" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="BD5" s="2">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>4</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV5" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:74" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2240,8 +2748,32 @@
       <c r="BB6" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+      <c r="BD6" s="2">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:74" ht="90" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="F7" s="2">
         <v>6</v>
@@ -2363,8 +2895,32 @@
       <c r="BB7" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+      <c r="BD7" s="2">
+        <v>6</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>6</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV7" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:74" ht="60" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="F8" s="2">
         <v>7</v>
@@ -2474,8 +3030,20 @@
       <c r="BB8" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS8" s="2">
+        <v>7</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV8" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>8</v>
       </c>
@@ -2560,8 +3128,20 @@
       <c r="BB9" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS9" s="2">
+        <v>8</v>
+      </c>
+      <c r="BT9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="F10" s="2">
         <v>9</v>
       </c>
@@ -2622,8 +3202,20 @@
       <c r="AM10" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS10" s="2">
+        <v>9</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="F11" s="2">
         <v>10</v>
       </c>
@@ -2672,8 +3264,20 @@
       <c r="AM11" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS11" s="2">
+        <v>10</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:74" ht="45" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <v>11</v>
       </c>
@@ -2698,11 +3302,318 @@
       <c r="S12" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="BS12" s="2">
+        <v>11</v>
+      </c>
+      <c r="BT12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BV12" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:74" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS13" s="2">
+        <v>12</v>
+      </c>
+      <c r="BT13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV13" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS14" s="2">
+        <v>13</v>
+      </c>
+      <c r="BT14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV14" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS15" s="2">
+        <v>14</v>
+      </c>
+      <c r="BT15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BV15" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS16" s="2">
+        <v>15</v>
+      </c>
+      <c r="BT16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BV16" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS17" s="2">
+        <v>16</v>
+      </c>
+      <c r="BT17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BV17" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS18" s="2">
+        <v>17</v>
+      </c>
+      <c r="BT18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BV18" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS19" s="2">
+        <v>18</v>
+      </c>
+      <c r="BT19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS20" s="2">
+        <v>19</v>
+      </c>
+      <c r="BT20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BV20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="71:74" ht="45" x14ac:dyDescent="0.25">
+      <c r="BS21" s="2">
+        <v>20</v>
+      </c>
+      <c r="BT21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV21" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS22" s="2">
+        <v>21</v>
+      </c>
+      <c r="BT22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV22" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS23" s="2">
+        <v>22</v>
+      </c>
+      <c r="BT23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BU23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BV23" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="71:74" x14ac:dyDescent="0.25">
+      <c r="BS24" s="2">
+        <v>23</v>
+      </c>
+      <c r="BT24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BV24" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="71:74" x14ac:dyDescent="0.25">
+      <c r="BS25" s="2">
+        <v>24</v>
+      </c>
+      <c r="BT25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BV25" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS26" s="2">
+        <v>25</v>
+      </c>
+      <c r="BT26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BV26" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS27" s="2">
+        <v>26</v>
+      </c>
+      <c r="BT27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BV27" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="71:74" x14ac:dyDescent="0.25">
+      <c r="BS28" s="2">
+        <v>27</v>
+      </c>
+      <c r="BT28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BV28" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="71:74" x14ac:dyDescent="0.25">
+      <c r="BS29" s="2">
+        <v>28</v>
+      </c>
+      <c r="BT29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV29" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS30" s="2">
+        <v>29</v>
+      </c>
+      <c r="BT30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BV30" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS31" s="2">
+        <v>30</v>
+      </c>
+      <c r="BT31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV31" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS32" s="2">
+        <v>31</v>
+      </c>
+      <c r="BT32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV32" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="71:74" ht="30" x14ac:dyDescent="0.25">
+      <c r="BS33" s="2">
+        <v>32</v>
+      </c>
+      <c r="BT33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BV33" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0"/>
-  <tableParts count="11">
+  <tableParts count="15">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2714,14 +3625,10 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1625030709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
 </worksheet>
 </file>